--- a/etc/global voice/응답 현황.xlsx
+++ b/etc/global voice/응답 현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - 현대엔지니어링(주)\mkSpace\_000_HEC\2024\2024_NLB\Global Voice\최종\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\global voice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{24CD4381-A512-4C5E-AFB3-4EE52E6DCB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{818BD090-1D92-403B-B1D0-79263E145D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="28770" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인사이드아웃" sheetId="4" r:id="rId1"/>
